--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey-headed Albatross_South Georgia (Islas Georgias del Sur).xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey-headed Albatross_South Georgia (Islas Georgias del Sur).xlsx
@@ -2889,13 +2889,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EBC2D93-6988-41B1-92DD-84FECD2FE21B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91F844AC-76F2-429C-A9F2-E9C60B7F4257}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E96E881-142B-4FF8-93B4-4D99497A0B18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7BA039E-5CEA-4F58-9445-48AD0A317265}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B6F60C-C1D6-43C3-A0FC-F1ED38679CB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1248446-9C60-4DA2-B053-196233BF4B81}"/>
 </file>